--- a/phan_2/data/data_gdtx.xlsx
+++ b/phan_2/data/data_gdtx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\it004\da1\phan_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D52F77C-DB53-4A91-A52B-F1F344DFD975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C93D73-0394-4D16-A722-222B412E0874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="80">
   <si>
     <t>Công lập</t>
   </si>
@@ -259,13 +259,22 @@
   </si>
   <si>
     <t>TT GDNN</t>
+  </si>
+  <si>
+    <t>phong_gd</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>Giáo dục thường xuyên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,12 +282,6 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -297,6 +300,20 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,7 +323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -329,27 +346,376 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -360,6 +726,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60D9C8FF-EF05-459B-AC12-8510E8327295}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:G35" xr:uid="{60D9C8FF-EF05-459B-AC12-8510E8327295}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{205C756B-E071-43FE-B029-9914E0BA57B4}" name="ma_truong" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A7C1420D-7FB2-4BA8-B5CD-4A41A6480F8C}" name="ten_truong" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7253E548-C3A9-435C-8C06-664699B93320}" name="dia_chi" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2A07F9DD-A476-455F-A9B3-92465B807AC6}" name="loai_hinh" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{94E23F1B-273A-45A4-9DE9-E23F866CAEFF}" name="loai_truong" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{7D841E8A-70DE-4ED2-B6A7-67CEA8F5ADE6}" name="phong_gd" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C840D69D-236C-4439-BB77-E8A098B486C4}" name="cap" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,619 +1041,766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="F1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>79000901</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="F2" s="4"/>
+      <c r="G2" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>79000902</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="F3" s="4"/>
+      <c r="G3" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>79000903</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="F4" s="4"/>
+      <c r="G4" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>79000905</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="48.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="F5" s="4"/>
+      <c r="G5" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>79000909</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="48.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="F6" s="4"/>
+      <c r="G6" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>79000911</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="64.8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="F7" s="4"/>
+      <c r="G7" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>79000912</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="F8" s="4"/>
+      <c r="G8" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>79000914</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="F9" s="4"/>
+      <c r="G9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>79000918</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="F10" s="4"/>
+      <c r="G10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>79000920</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="F11" s="4"/>
+      <c r="G11" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>79760901</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="F12" s="4"/>
+      <c r="G12" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>79761901</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="F13" s="4"/>
+      <c r="G13" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>79762901</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="F14" s="4"/>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>79763901</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="F15" s="4"/>
+      <c r="G15" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>79764901</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="F16" s="4"/>
+      <c r="G16" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>79765901</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="64.8" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+      <c r="F17" s="4"/>
+      <c r="G17" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>79766901</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+      <c r="F18" s="4"/>
+      <c r="G18" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>79767901</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="F19" s="4"/>
+      <c r="G19" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>79768901</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+      <c r="F20" s="4"/>
+      <c r="G20" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>79769901</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+      <c r="F21" s="4"/>
+      <c r="G21" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>79770901</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="F22" s="4"/>
+      <c r="G22" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>79771901</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+      <c r="F23" s="4"/>
+      <c r="G23" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>79772901</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="64.8" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+      <c r="F24" s="4"/>
+      <c r="G24" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>79773901</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="F25" s="4"/>
+      <c r="G25" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>79774901</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+      <c r="F26" s="4"/>
+      <c r="G26" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>79775901</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="F27" s="4"/>
+      <c r="G27" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>79776901</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+      <c r="F28" s="4"/>
+      <c r="G28" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>79777901</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="64.8" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+      <c r="F29" s="4"/>
+      <c r="G29" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>79778901</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="48.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+      <c r="F30" s="4"/>
+      <c r="G30" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>79783901</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="48.6" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+      <c r="F31" s="4"/>
+      <c r="G31" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>79784901</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+      <c r="F32" s="4"/>
+      <c r="G32" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
         <v>79785901</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="F33" s="4"/>
+      <c r="G33" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>79786901</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="97.2" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="F34" s="4"/>
+      <c r="G34" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>79787901</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/phan_2/data/data_gdtx.xlsx
+++ b/phan_2/data/data_gdtx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\it004\da1\phan_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C93D73-0394-4D16-A722-222B412E0874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2757D43-E543-40F2-8725-DB1CC7033D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/phan_2/data/data_gdtx.xlsx
+++ b/phan_2/data/data_gdtx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\it004\da1\phan_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2757D43-E543-40F2-8725-DB1CC7033D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBCCC66-8320-458A-92B2-03E097BC760E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
